--- a/waltz-jobs/src/main/resources/sample-data/v1.xlsx
+++ b/waltz-jobs/src/main/resources/sample-data/v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,7 +14,6 @@
     <sheet name="app-cap" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="data-types" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="flows" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="app-assessments" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="650">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -490,6 +489,288 @@
     <t xml:space="preserve">Capabilities related to monitoring online reputation, addressing customer feedback and complaints, and managing public relations to uphold the bank\'s reputation.</t>
   </si>
   <si>
+    <t xml:space="preserve">CT-051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer Lending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages consumer lending products such as personal loans, auto loans, and credit cards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortgage Lending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles mortgage lending operations, including origination, underwriting, and servicing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Business Banking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides banking services tailored to small business customers, including business loans and deposit accounts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial Lending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages commercial lending activities, including loans to businesses for expansion, equipment purchases, and working capital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitates trade finance transactions, including letters of credit, trade financing, and export-import financing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate Treasury Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offers treasury management solutions for corporate clients, including cash management, liquidity services, and risk mitigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizes investment portfolios to achieve target returns while managing risk and adhering to investment policies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hedging Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implements hedging strategies to mitigate risks associated with market fluctuations, interest rates, and currency exchange rates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages alternative investment products such as hedge funds, private equity, and real estate investment trusts (REITs).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Risk Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops models and analytics for assessing credit risk, including probability of default (PD), loss given default (LGD), and exposure at default (EAD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stress Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conducts stress tests to assess the resilience of the bank's balance sheet and capital adequacy under adverse economic scenarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Portfolio Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages the bank's credit portfolio, including risk-based pricing, credit limit management, and portfolio diversification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Compliance Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitors regulatory compliance across various business functions and ensures adherence to laws, regulations, and industry standards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML/KYC Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures compliance with anti-money laundering (AML) and know your customer (KYC) regulations through customer due diligence and transaction monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepares and submits regulatory reports to regulatory authorities, including financial disclosures, transaction reports, and compliance filings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages IT infrastructure components, including servers, networks, databases, and cloud services, to ensure reliability, performance, and security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops and maintains software applications for various banking functions, including core banking systems, customer-facing applications, and data analytics tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Security Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implements and maintains cybersecurity measures to protect the bank's information systems, data, and customer information from cyber threats and attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budgeting and Forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepares annual budgets, forecasts financial performance, and tracks actual performance against budgeted targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzes financial data, trends, and performance metrics to provide insights for strategic decision-making and performance optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages the bank's capital allocation, including capital planning, capital adequacy assessment, and regulatory capital compliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment and Hiring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attracts and hires qualified candidates for various positions within the bank, ensuring alignment with organizational goals and culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Training and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designs and delivers training programs to develop employee skills, knowledge, and competencies in alignment with business objectives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establishes performance goals, provides feedback, and evaluates employee performance to drive continuous improvement and development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Storage and Retrieval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stores and retrieves electronic documents and records in a secure and organized manner, ensuring easy access and compliance with record-keeping requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Workflow Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automates document-centric workflows such as document routing, approval processes, and version control to improve efficiency and productivity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Security and Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures the security and confidentiality of sensitive documents through access controls, encryption, and compliance with data protection regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Data Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzes market data, economic indicators, and industry trends to support investment decision-making, portfolio management, and risk assessment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develops financial models and forecasts to simulate scenarios, evaluate investment opportunities, and assess risk-return trade-offs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantitative Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies statistical and mathematical techniques to analyze financial data, assess risk exposures, and optimize investment strategies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Relationship Management (CRM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages customer interactions, tracks leads, and analyzes customer data to enhance customer satisfaction and retention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segments customers into groups based on demographic, behavioral, and transactional data for targeted marketing and service strategies.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Organization_Unit</t>
   </si>
   <si>
@@ -901,6 +1182,366 @@
     <t xml:space="preserve">Manages credit card accounts, transactions, statements, rewards programs, and customer inquiries for cardholders.</t>
   </si>
   <si>
+    <t xml:space="preserve">APP-051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Mortgage Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows customers to apply for mortgage loans online, submit required documents, and track the status of their applications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Banking Mobile App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides business customers with mobile banking services tailored to their needs, including account management and fund transfers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Analysis Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enables investment professionals to analyze and optimize investment portfolios based on risk, return, and diversification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Risk Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides risk managers with an overview of operational risks across different business units and processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML Compliance System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automates anti-money laundering (AML) compliance processes, including customer due diligence, transaction monitoring, and suspicious activity reporting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial Loan Origination Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streamlines the origination process for commercial loans, from application submission to credit analysis and approval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trading Algorithm Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offers advanced trading algorithms and strategies for optimizing trading execution and achieving desired investment outcomes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incident Response Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitates the management and resolution of cybersecurity incidents, including incident triage, investigation, and response coordination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Statement Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generates customizable financial statements, such as income statements and balance sheets, based on accounting data and reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM Analytics Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides insights into customer behavior and preferences through advanced analytics and data visualization tools integrated with the CRM system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM Monitoring System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitors the status and performance of ATM networks, including cash levels, transaction volumes, and maintenance needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial Real Estate Portfolio Management Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages commercial real estate assets and portfolios, including property valuation, lease management, and tenant relationships.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment Risk Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregates and visualizes risk metrics and analytics to support investment decision-making and risk management processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Compliance Automation Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automates regulatory compliance tasks and workflows, ensuring timely adherence to changing regulatory requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Wallet Security App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides enhanced security features for mobile wallet applications, such as biometric authentication, tokenization, and transaction monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Planning Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assists financial planners in creating comprehensive financial plans for clients, incorporating investment strategies, retirement planning, and risk management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraud Detection and Prevention System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detects and prevents fraudulent activities across various banking channels, including payment fraud, identity theft, and account takeover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Management and Retrieval System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages electronic documents and records, enabling efficient storage, retrieval, and archival of important documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade Finance Compliance Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures compliance with trade finance regulations and sanctions screening requirements for international trade transactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Valuation and Pricing Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses advanced modeling techniques to value financial assets and securities, supporting investment decision-making and portfolio management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Reporting Automation Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automates the preparation and submission of regulatory reports to regulatory authorities, reducing manual effort and ensuring accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Payment Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a secure and seamless platform for processing mobile payments and facilitating transactions between customers and merchants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Data Analytics Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzes market data and trends to provide insights for investment strategies, risk management, and trading decisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Audit Tracking System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracks and manages internal audit activities, findings, and remediation efforts to ensure compliance with internal policies and regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Performance Management Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitates performance evaluations, goal setting, and feedback management for employee development and talent retention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card Fraud Detection System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses machine learning algorithms to detect and prevent fraudulent transactions in credit card payments, protecting cardholders and minimizing losses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Quality Management Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures data integrity and accuracy through data profiling, cleansing, and validation processes, improving decision-making and regulatory compliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Forecasting and Optimization Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecasts cash flows and optimizes cash positions to minimize idle cash balances and maximize investment returns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Complaint Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracks and resolves customer complaints efficiently, improving customer satisfaction and regulatory compliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic Trading Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides algorithmic trading strategies and execution services for institutional investors, optimizing trade execution and minimizing market impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML Transaction Monitoring System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitors customer transactions for suspicious activity and compliance with AML regulations, generating alerts for further investigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Servicing and Administration Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages loan accounts, payments, and servicing tasks, streamlining loan administration processes and enhancing customer service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Risk Analytics Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzes market risk exposures and scenarios to quantify risk metrics and assess potential impacts on the bank's financial performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Onboarding and Training Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streamlines employee onboarding processes and provides access to training materials, policies, and compliance requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber Threat Intelligence Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregates and analyzes threat intelligence data to proactively identify and mitigate cybersecurity threats and vulnerabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Segmentation and Targeting System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segments customer populations based on demographic, behavioral, and transactional data for targeted marketing and service offerings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Identity Verification System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifies customer identities and authenticates digital transactions through biometric, document verification, and identity proofing methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Efficiency Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides real-time visibility into operational performance metrics, enabling proactive decision-making and process optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Rebalancing and Optimization Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automates portfolio rebalancing processes and optimizes asset allocations based on investment objectives and risk preferences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP-090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Change Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracks and manages regulatory changes, assesses their impact on policies and procedures, and ensures timely compliance updates.</t>
+  </si>
+  <si>
     <t xml:space="preserve">App_Identifier</t>
   </si>
   <si>
@@ -1264,163 +1905,76 @@
     <t xml:space="preserve">Data_Type_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Assessment Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criticality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application is critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application has a normal criticality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application has a low criticality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal Hold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application is subject to legal hold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Strategy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replatform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lift and Reshape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lift and shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retire application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relocate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypervisor-Level Lift and Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repurchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop and Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitive Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains Personal Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains Financial Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains Sensitive Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains Confidential Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains Internal Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains Public Data</t>
+    <t xml:space="preserve">DT-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT-076</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1453,12 +2007,6 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1507,12 +2055,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1973,10 +2517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2394,6 +2938,454 @@
       </c>
       <c r="D30" s="0" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2412,10 +3404,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2431,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
@@ -2439,632 +3431,1192 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>251</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>254</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>257</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>290</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -3093,15 +4645,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>291</v>
+        <v>505</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>73</v>
@@ -3109,7 +4661,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>82</v>
@@ -3117,7 +4669,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>91</v>
@@ -3125,7 +4677,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>73</v>
@@ -3133,7 +4685,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>76</v>
@@ -3141,7 +4693,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>82</v>
@@ -3149,7 +4701,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>85</v>
@@ -3157,7 +4709,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>88</v>
@@ -3165,7 +4717,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>94</v>
@@ -3173,7 +4725,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>73</v>
@@ -3181,7 +4733,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -3189,7 +4741,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>94</v>
@@ -3197,7 +4749,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>97</v>
@@ -3205,7 +4757,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>70</v>
@@ -3213,7 +4765,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>73</v>
@@ -3221,7 +4773,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>85</v>
@@ -3229,7 +4781,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>88</v>
@@ -3237,7 +4789,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>88</v>
@@ -3245,7 +4797,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>130</v>
@@ -3253,7 +4805,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>91</v>
@@ -3261,7 +4813,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>112</v>
@@ -3269,7 +4821,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>70</v>
@@ -3277,7 +4829,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>97</v>
@@ -3285,7 +4837,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>70</v>
@@ -3293,7 +4845,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>109</v>
@@ -3301,7 +4853,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>118</v>
@@ -3309,7 +4861,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>85</v>
@@ -3317,7 +4869,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>97</v>
@@ -3325,7 +4877,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>115</v>
@@ -3333,7 +4885,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
@@ -3341,7 +4893,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>109</v>
@@ -3349,7 +4901,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>112</v>
@@ -3357,7 +4909,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>70</v>
@@ -3365,7 +4917,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>79</v>
@@ -3373,7 +4925,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>106</v>
@@ -3381,7 +4933,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>73</v>
@@ -3389,7 +4941,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>82</v>
@@ -3397,7 +4949,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>121</v>
@@ -3405,7 +4957,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>70</v>
@@ -3413,7 +4965,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>94</v>
@@ -3421,7 +4973,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>79</v>
@@ -3429,7 +4981,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>85</v>
@@ -3437,7 +4989,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>70</v>
@@ -3445,7 +4997,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>79</v>
@@ -3453,7 +5005,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>124</v>
@@ -3461,7 +5013,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>70</v>
@@ -3469,7 +5021,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>121</v>
@@ -3477,7 +5029,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>127</v>
@@ -3485,7 +5037,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>85</v>
@@ -3493,7 +5045,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>88</v>
@@ -3501,7 +5053,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>130</v>
@@ -3509,7 +5061,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>94</v>
@@ -3517,7 +5069,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>97</v>
@@ -3525,7 +5077,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>133</v>
@@ -3533,7 +5085,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>73</v>
@@ -3541,7 +5093,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>136</v>
@@ -3549,7 +5101,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>139</v>
@@ -3557,7 +5109,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>76</v>
@@ -3565,7 +5117,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>142</v>
@@ -3573,7 +5125,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>145</v>
@@ -3581,7 +5133,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>79</v>
@@ -3589,7 +5141,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>106</v>
@@ -3597,7 +5149,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>148</v>
@@ -3605,7 +5157,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>73</v>
@@ -3613,7 +5165,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>82</v>
@@ -3621,7 +5173,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>151</v>
@@ -3629,7 +5181,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>85</v>
@@ -3637,7 +5189,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>112</v>
@@ -3645,7 +5197,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>115</v>
@@ -3653,7 +5205,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>85</v>
@@ -3661,7 +5213,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>94</v>
@@ -3669,15 +5221,15 @@
     </row>
     <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>293</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>88</v>
@@ -3685,7 +5237,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>133</v>
@@ -3693,15 +5245,15 @@
     </row>
     <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>294</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>73</v>
@@ -3709,15 +5261,15 @@
     </row>
     <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>295</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>70</v>
@@ -3725,7 +5277,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>82</v>
@@ -3733,7 +5285,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>127</v>
@@ -3741,7 +5293,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>94</v>
@@ -3749,7 +5301,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>97</v>
@@ -3757,7 +5309,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>130</v>
@@ -3765,7 +5317,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>91</v>
@@ -3773,23 +5325,23 @@
     </row>
     <row r="86" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>296</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>297</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>73</v>
@@ -3797,7 +5349,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>82</v>
@@ -3805,15 +5357,15 @@
     </row>
     <row r="90" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>298</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>85</v>
@@ -3821,23 +5373,23 @@
     </row>
     <row r="92" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>298</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>299</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>70</v>
@@ -3845,23 +5397,23 @@
     </row>
     <row r="95" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>300</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>301</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>70</v>
@@ -3869,7 +5421,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>94</v>
@@ -3877,15 +5429,15 @@
     </row>
     <row r="99" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>302</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>85</v>
@@ -3893,7 +5445,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>88</v>
@@ -3901,15 +5453,15 @@
     </row>
     <row r="102" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>303</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>70</v>
@@ -3917,7 +5469,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>79</v>
@@ -3925,7 +5477,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>115</v>
@@ -3933,7 +5485,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>73</v>
@@ -3941,7 +5493,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>85</v>
@@ -3949,15 +5501,15 @@
     </row>
     <row r="108" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>304</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>85</v>
@@ -3965,7 +5517,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>112</v>
@@ -3973,7 +5525,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>118</v>
@@ -3981,7 +5533,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>94</v>
@@ -3989,7 +5541,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>97</v>
@@ -3997,15 +5549,15 @@
     </row>
     <row r="114" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>70</v>
@@ -4013,7 +5565,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>91</v>
@@ -4021,15 +5573,15 @@
     </row>
     <row r="117" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>306</v>
+        <v>520</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>88</v>
@@ -4037,7 +5589,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>106</v>
@@ -4045,15 +5597,15 @@
     </row>
     <row r="120" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>307</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>85</v>
@@ -4061,23 +5613,23 @@
     </row>
     <row r="122" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>308</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>309</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>73</v>
@@ -4085,7 +5637,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>82</v>
@@ -4093,7 +5645,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>121</v>
@@ -4101,7 +5653,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>310</v>
+        <v>524</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>70</v>
@@ -4109,23 +5661,23 @@
     </row>
     <row r="128" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>310</v>
+        <v>524</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>310</v>
+        <v>524</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>312</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>313</v>
+        <v>527</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>85</v>
@@ -4133,7 +5685,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>313</v>
+        <v>527</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>94</v>
@@ -4141,7 +5693,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>313</v>
+        <v>527</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>124</v>
@@ -4149,7 +5701,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>314</v>
+        <v>528</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>70</v>
@@ -4157,7 +5709,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>314</v>
+        <v>528</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>127</v>
@@ -4165,15 +5717,15 @@
     </row>
     <row r="135" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>314</v>
+        <v>528</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>315</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>316</v>
+        <v>530</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>73</v>
@@ -4181,7 +5733,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>316</v>
+        <v>530</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>94</v>
@@ -4189,15 +5741,15 @@
     </row>
     <row r="138" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>316</v>
+        <v>530</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>317</v>
+        <v>531</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>318</v>
+        <v>532</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>70</v>
@@ -4205,7 +5757,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>318</v>
+        <v>532</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>136</v>
@@ -4213,7 +5765,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>318</v>
+        <v>532</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>145</v>
@@ -4251,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>319</v>
+        <v>533</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -4262,419 +5814,419 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>321</v>
+        <v>535</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>322</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>324</v>
+        <v>538</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>325</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>327</v>
+        <v>541</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>328</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>330</v>
+        <v>544</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>331</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>333</v>
+        <v>547</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>334</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>336</v>
+        <v>550</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>337</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>339</v>
+        <v>553</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>342</v>
+        <v>556</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>343</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>345</v>
+        <v>559</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>346</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>348</v>
+        <v>562</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>349</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>350</v>
+        <v>564</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>351</v>
+        <v>565</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>352</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>353</v>
+        <v>567</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>354</v>
+        <v>568</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>355</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>356</v>
+        <v>570</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>357</v>
+        <v>571</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>358</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>360</v>
+        <v>574</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>361</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>362</v>
+        <v>576</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>363</v>
+        <v>577</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>364</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>365</v>
+        <v>579</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>367</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>368</v>
+        <v>582</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>369</v>
+        <v>583</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>370</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>371</v>
+        <v>585</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>373</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>374</v>
+        <v>588</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>371</v>
+        <v>585</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>375</v>
+        <v>589</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>376</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>377</v>
+        <v>591</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>371</v>
+        <v>585</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>378</v>
+        <v>592</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>379</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>380</v>
+        <v>594</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>371</v>
+        <v>585</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>381</v>
+        <v>595</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>382</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>383</v>
+        <v>597</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>384</v>
+        <v>598</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>385</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>386</v>
+        <v>600</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>383</v>
+        <v>597</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>387</v>
+        <v>601</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>388</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>389</v>
+        <v>603</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>383</v>
+        <v>597</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>390</v>
+        <v>604</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>391</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>392</v>
+        <v>606</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>383</v>
+        <v>597</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>394</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>395</v>
+        <v>609</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>396</v>
+        <v>610</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>397</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>398</v>
+        <v>612</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>395</v>
+        <v>609</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>327</v>
+        <v>541</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>399</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>400</v>
+        <v>614</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>395</v>
+        <v>609</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>401</v>
+        <v>615</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>402</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>403</v>
+        <v>617</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>395</v>
+        <v>609</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>404</v>
+        <v>618</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>395</v>
+        <v>609</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>407</v>
+        <v>621</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>408</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -4693,957 +6245,1145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>409</v>
+        <v>623</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>410</v>
+        <v>624</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>411</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B74" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B77" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B80" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B83" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B86" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="B89" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="B92" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B93" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="B95" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B98" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B101" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="C101" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
+      <c r="C102" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/waltz-jobs/src/main/resources/sample-data/v1.xlsx
+++ b/waltz-jobs/src/main/resources/sample-data/v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,6 +14,7 @@
     <sheet name="app-cap" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="data-types" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="flows" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="app-assessments" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="465">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -489,288 +490,6 @@
     <t xml:space="preserve">Capabilities related to monitoring online reputation, addressing customer feedback and complaints, and managing public relations to uphold the bank\'s reputation.</t>
   </si>
   <si>
-    <t xml:space="preserve">CT-051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer Lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages consumer lending products such as personal loans, auto loans, and credit cards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortgage Lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handles mortgage lending operations, including origination, underwriting, and servicing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Business Banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides banking services tailored to small business customers, including business loans and deposit accounts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial Lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages commercial lending activities, including loans to businesses for expansion, equipment purchases, and working capital.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilitates trade finance transactions, including letters of credit, trade financing, and export-import financing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate Treasury Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offers treasury management solutions for corporate clients, including cash management, liquidity services, and risk mitigation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portfolio Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimizes investment portfolios to achieve target returns while managing risk and adhering to investment policies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedging Strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implements hedging strategies to mitigate risks associated with market fluctuations, interest rates, and currency exchange rates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages alternative investment products such as hedge funds, private equity, and real estate investment trusts (REITs).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Risk Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develops models and analytics for assessing credit risk, including probability of default (PD), loss given default (LGD), and exposure at default (EAD).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stress Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conducts stress tests to assess the resilience of the bank's balance sheet and capital adequacy under adverse economic scenarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Portfolio Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages the bank's credit portfolio, including risk-based pricing, credit limit management, and portfolio diversification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Compliance Monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitors regulatory compliance across various business functions and ensures adherence to laws, regulations, and industry standards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AML/KYC Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures compliance with anti-money laundering (AML) and know your customer (KYC) regulations through customer due diligence and transaction monitoring.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepares and submits regulatory reports to regulatory authorities, including financial disclosures, transaction reports, and compliance filings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages IT infrastructure components, including servers, networks, databases, and cloud services, to ensure reliability, performance, and security.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develops and maintains software applications for various banking functions, including core banking systems, customer-facing applications, and data analytics tools.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Security Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implements and maintains cybersecurity measures to protect the bank's information systems, data, and customer information from cyber threats and attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budgeting and Forecasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepares annual budgets, forecasts financial performance, and tracks actual performance against budgeted targets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzes financial data, trends, and performance metrics to provide insights for strategic decision-making and performance optimization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages the bank's capital allocation, including capital planning, capital adequacy assessment, and regulatory capital compliance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment and Hiring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attracts and hires qualified candidates for various positions within the bank, ensuring alignment with organizational goals and culture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Training and Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designs and delivers training programs to develop employee skills, knowledge, and competencies in alignment with business objectives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establishes performance goals, provides feedback, and evaluates employee performance to drive continuous improvement and development.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Storage and Retrieval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stores and retrieves electronic documents and records in a secure and organized manner, ensuring easy access and compliance with record-keeping requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Workflow Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automates document-centric workflows such as document routing, approval processes, and version control to improve efficiency and productivity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Security and Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures the security and confidentiality of sensitive documents through access controls, encryption, and compliance with data protection regulations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Data Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzes market data, economic indicators, and industry trends to support investment decision-making, portfolio management, and risk assessment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develops financial models and forecasts to simulate scenarios, evaluate investment opportunities, and assess risk-return trade-offs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantitative Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies statistical and mathematical techniques to analyze financial data, assess risk exposures, and optimize investment strategies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Relationship Management (CRM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages customer interactions, tracks leads, and analyzes customer data to enhance customer satisfaction and retention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT-082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segments customers into groups based on demographic, behavioral, and transactional data for targeted marketing and service strategies.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Organization_Unit</t>
   </si>
   <si>
@@ -1182,366 +901,6 @@
     <t xml:space="preserve">Manages credit card accounts, transactions, statements, rewards programs, and customer inquiries for cardholders.</t>
   </si>
   <si>
-    <t xml:space="preserve">APP-051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Mortgage Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows customers to apply for mortgage loans online, submit required documents, and track the status of their applications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Banking Mobile App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides business customers with mobile banking services tailored to their needs, including account management and fund transfers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portfolio Analysis Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enables investment professionals to analyze and optimize investment portfolios based on risk, return, and diversification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operational Risk Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides risk managers with an overview of operational risks across different business units and processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AML Compliance System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automates anti-money laundering (AML) compliance processes, including customer due diligence, transaction monitoring, and suspicious activity reporting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial Loan Origination Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streamlines the origination process for commercial loans, from application submission to credit analysis and approval.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trading Algorithm Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offers advanced trading algorithms and strategies for optimizing trading execution and achieving desired investment outcomes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incident Response Management System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilitates the management and resolution of cybersecurity incidents, including incident triage, investigation, and response coordination.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Statement Generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generates customizable financial statements, such as income statements and balance sheets, based on accounting data and reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM Analytics Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides insights into customer behavior and preferences through advanced analytics and data visualization tools integrated with the CRM system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM Monitoring System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitors the status and performance of ATM networks, including cash levels, transaction volumes, and maintenance needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial Real Estate Portfolio Management Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages commercial real estate assets and portfolios, including property valuation, lease management, and tenant relationships.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Risk Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregates and visualizes risk metrics and analytics to support investment decision-making and risk management processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Compliance Automation Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automates regulatory compliance tasks and workflows, ensuring timely adherence to changing regulatory requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Wallet Security App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides enhanced security features for mobile wallet applications, such as biometric authentication, tokenization, and transaction monitoring.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Planning Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assists financial planners in creating comprehensive financial plans for clients, incorporating investment strategies, retirement planning, and risk management.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraud Detection and Prevention System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detects and prevents fraudulent activities across various banking channels, including payment fraud, identity theft, and account takeover.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Management and Retrieval System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages electronic documents and records, enabling efficient storage, retrieval, and archival of important documents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade Finance Compliance Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures compliance with trade finance regulations and sanctions screening requirements for international trade transactions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Valuation and Pricing Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses advanced modeling techniques to value financial assets and securities, supporting investment decision-making and portfolio management.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Reporting Automation Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automates the preparation and submission of regulatory reports to regulatory authorities, reducing manual effort and ensuring accuracy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Payment Gateway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides a secure and seamless platform for processing mobile payments and facilitating transactions between customers and merchants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Data Analytics Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzes market data and trends to provide insights for investment strategies, risk management, and trading decisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Audit Tracking System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracks and manages internal audit activities, findings, and remediation efforts to ensure compliance with internal policies and regulations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Performance Management Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilitates performance evaluations, goal setting, and feedback management for employee development and talent retention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Card Fraud Detection System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses machine learning algorithms to detect and prevent fraudulent transactions in credit card payments, protecting cardholders and minimizing losses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Quality Management Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures data integrity and accuracy through data profiling, cleansing, and validation processes, improving decision-making and regulatory compliance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Forecasting and Optimization Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forecasts cash flows and optimizes cash positions to minimize idle cash balances and maximize investment returns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Complaint Management System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracks and resolves customer complaints efficiently, improving customer satisfaction and regulatory compliance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithmic Trading Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides algorithmic trading strategies and execution services for institutional investors, optimizing trade execution and minimizing market impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AML Transaction Monitoring System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitors customer transactions for suspicious activity and compliance with AML regulations, generating alerts for further investigation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan Servicing and Administration Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages loan accounts, payments, and servicing tasks, streamlining loan administration processes and enhancing customer service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Risk Analytics Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzes market risk exposures and scenarios to quantify risk metrics and assess potential impacts on the bank's financial performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Onboarding and Training Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streamlines employee onboarding processes and provides access to training materials, policies, and compliance requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyber Threat Intelligence Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregates and analyzes threat intelligence data to proactively identify and mitigate cybersecurity threats and vulnerabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Segmentation and Targeting System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segments customer populations based on demographic, behavioral, and transactional data for targeted marketing and service offerings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Identity Verification System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifies customer identities and authenticates digital transactions through biometric, document verification, and identity proofing methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operational Efficiency Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides real-time visibility into operational performance metrics, enabling proactive decision-making and process optimization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portfolio Rebalancing and Optimization Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automates portfolio rebalancing processes and optimizes asset allocations based on investment objectives and risk preferences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP-090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Change Management System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracks and manages regulatory changes, assesses their impact on policies and procedures, and ensures timely compliance updates.</t>
-  </si>
-  <si>
     <t xml:space="preserve">App_Identifier</t>
   </si>
   <si>
@@ -1905,76 +1264,163 @@
     <t xml:space="preserve">Data_Type_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">DT-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT-076</t>
+    <t xml:space="preserve">Assessment Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application is critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application has a normal criticality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application has a low criticality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application is subject to legal hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Strategy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replatform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lift and Reshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rehost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lift and shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retire application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypervisor-Level Lift and Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repurchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop and Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitive Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Personal Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Financial Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Sensitive Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Confidential Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Internal Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Public Data</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2007,6 +1453,12 @@
     </font>
     <font>
       <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2055,8 +1507,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2517,10 +1973,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2938,454 +2394,6 @@
       </c>
       <c r="D30" s="0" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3404,10 +2412,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3423,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
@@ -3431,1192 +2439,632 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>372</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>504</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4645,15 +3093,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>506</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>73</v>
@@ -4661,7 +3109,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>82</v>
@@ -4669,7 +3117,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>91</v>
@@ -4677,7 +3125,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>73</v>
@@ -4685,7 +3133,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>76</v>
@@ -4693,7 +3141,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>82</v>
@@ -4701,7 +3149,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>85</v>
@@ -4709,7 +3157,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>88</v>
@@ -4717,7 +3165,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>94</v>
@@ -4725,7 +3173,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>73</v>
@@ -4733,7 +3181,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -4741,7 +3189,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>94</v>
@@ -4749,7 +3197,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>97</v>
@@ -4757,7 +3205,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>70</v>
@@ -4765,7 +3213,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>73</v>
@@ -4773,7 +3221,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>85</v>
@@ -4781,7 +3229,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>88</v>
@@ -4789,7 +3237,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>88</v>
@@ -4797,7 +3245,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>130</v>
@@ -4805,7 +3253,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>91</v>
@@ -4813,7 +3261,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>112</v>
@@ -4821,7 +3269,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>70</v>
@@ -4829,7 +3277,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>97</v>
@@ -4837,7 +3285,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>70</v>
@@ -4845,7 +3293,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>109</v>
@@ -4853,7 +3301,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>118</v>
@@ -4861,7 +3309,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>85</v>
@@ -4869,7 +3317,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>97</v>
@@ -4877,7 +3325,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>115</v>
@@ -4885,7 +3333,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
@@ -4893,7 +3341,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>109</v>
@@ -4901,7 +3349,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>112</v>
@@ -4909,7 +3357,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>70</v>
@@ -4917,7 +3365,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>79</v>
@@ -4925,7 +3373,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>106</v>
@@ -4933,7 +3381,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>73</v>
@@ -4941,7 +3389,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>82</v>
@@ -4949,7 +3397,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>121</v>
@@ -4957,7 +3405,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>70</v>
@@ -4965,7 +3413,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>94</v>
@@ -4973,7 +3421,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>79</v>
@@ -4981,7 +3429,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>85</v>
@@ -4989,7 +3437,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>70</v>
@@ -4997,7 +3445,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>79</v>
@@ -5005,7 +3453,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>124</v>
@@ -5013,7 +3461,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>70</v>
@@ -5021,7 +3469,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>121</v>
@@ -5029,7 +3477,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>127</v>
@@ -5037,7 +3485,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>85</v>
@@ -5045,7 +3493,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>88</v>
@@ -5053,7 +3501,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>130</v>
@@ -5061,7 +3509,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>94</v>
@@ -5069,7 +3517,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>97</v>
@@ -5077,7 +3525,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>133</v>
@@ -5085,7 +3533,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>73</v>
@@ -5093,7 +3541,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>136</v>
@@ -5101,7 +3549,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>139</v>
@@ -5109,7 +3557,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>76</v>
@@ -5117,7 +3565,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>142</v>
@@ -5125,7 +3573,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>145</v>
@@ -5133,7 +3581,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>79</v>
@@ -5141,7 +3589,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>106</v>
@@ -5149,7 +3597,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>148</v>
@@ -5157,7 +3605,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>73</v>
@@ -5165,7 +3613,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>82</v>
@@ -5173,7 +3621,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>151</v>
@@ -5181,7 +3629,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>85</v>
@@ -5189,7 +3637,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>112</v>
@@ -5197,7 +3645,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>115</v>
@@ -5205,7 +3653,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>85</v>
@@ -5213,7 +3661,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>94</v>
@@ -5221,15 +3669,15 @@
     </row>
     <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>507</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>88</v>
@@ -5237,7 +3685,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>133</v>
@@ -5245,15 +3693,15 @@
     </row>
     <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>508</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>73</v>
@@ -5261,15 +3709,15 @@
     </row>
     <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>509</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>70</v>
@@ -5277,7 +3725,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>82</v>
@@ -5285,7 +3733,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>127</v>
@@ -5293,7 +3741,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>94</v>
@@ -5301,7 +3749,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>97</v>
@@ -5309,7 +3757,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>130</v>
@@ -5317,7 +3765,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>91</v>
@@ -5325,23 +3773,23 @@
     </row>
     <row r="86" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>510</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>511</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>73</v>
@@ -5349,7 +3797,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>82</v>
@@ -5357,15 +3805,15 @@
     </row>
     <row r="90" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>512</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>85</v>
@@ -5373,23 +3821,23 @@
     </row>
     <row r="92" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>512</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>513</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>70</v>
@@ -5397,23 +3845,23 @@
     </row>
     <row r="95" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>514</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>515</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>70</v>
@@ -5421,7 +3869,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>94</v>
@@ -5429,15 +3877,15 @@
     </row>
     <row r="99" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>516</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>85</v>
@@ -5445,7 +3893,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>88</v>
@@ -5453,15 +3901,15 @@
     </row>
     <row r="102" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>517</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>70</v>
@@ -5469,7 +3917,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>79</v>
@@ -5477,7 +3925,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>115</v>
@@ -5485,7 +3933,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>73</v>
@@ -5493,7 +3941,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>85</v>
@@ -5501,15 +3949,15 @@
     </row>
     <row r="108" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>518</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>85</v>
@@ -5517,7 +3965,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>112</v>
@@ -5525,7 +3973,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>118</v>
@@ -5533,7 +3981,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>94</v>
@@ -5541,7 +3989,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>97</v>
@@ -5549,15 +3997,15 @@
     </row>
     <row r="114" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>519</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>70</v>
@@ -5565,7 +4013,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>91</v>
@@ -5573,15 +4021,15 @@
     </row>
     <row r="117" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>520</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>88</v>
@@ -5589,7 +4037,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>106</v>
@@ -5597,15 +4045,15 @@
     </row>
     <row r="120" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>521</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>85</v>
@@ -5613,23 +4061,23 @@
     </row>
     <row r="122" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>522</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>523</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>73</v>
@@ -5637,7 +4085,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>82</v>
@@ -5645,7 +4093,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>121</v>
@@ -5653,7 +4101,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>524</v>
+        <v>310</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>70</v>
@@ -5661,23 +4109,23 @@
     </row>
     <row r="128" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>524</v>
+        <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>525</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>524</v>
+        <v>310</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>526</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>527</v>
+        <v>313</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>85</v>
@@ -5685,7 +4133,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>527</v>
+        <v>313</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>94</v>
@@ -5693,7 +4141,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>527</v>
+        <v>313</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>124</v>
@@ -5701,7 +4149,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>528</v>
+        <v>314</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>70</v>
@@ -5709,7 +4157,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>528</v>
+        <v>314</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>127</v>
@@ -5717,15 +4165,15 @@
     </row>
     <row r="135" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>528</v>
+        <v>314</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>529</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>530</v>
+        <v>316</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>73</v>
@@ -5733,7 +4181,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>530</v>
+        <v>316</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>94</v>
@@ -5741,15 +4189,15 @@
     </row>
     <row r="138" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>530</v>
+        <v>316</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>531</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>532</v>
+        <v>318</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>70</v>
@@ -5757,7 +4205,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>532</v>
+        <v>318</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>136</v>
@@ -5765,7 +4213,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>532</v>
+        <v>318</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>145</v>
@@ -5803,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>533</v>
+        <v>319</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -5814,419 +4262,419 @@
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>535</v>
+        <v>321</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>536</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>538</v>
+        <v>324</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>539</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>541</v>
+        <v>327</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>542</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>544</v>
+        <v>330</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>545</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>547</v>
+        <v>333</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>548</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>549</v>
+        <v>335</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>550</v>
+        <v>336</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>551</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>549</v>
+        <v>335</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>553</v>
+        <v>339</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>554</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>549</v>
+        <v>335</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>556</v>
+        <v>342</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>557</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>549</v>
+        <v>335</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>559</v>
+        <v>345</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>560</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>562</v>
+        <v>348</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>563</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>564</v>
+        <v>350</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>565</v>
+        <v>351</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>566</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>567</v>
+        <v>353</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>568</v>
+        <v>354</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>569</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>570</v>
+        <v>356</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>571</v>
+        <v>357</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>572</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>573</v>
+        <v>359</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>574</v>
+        <v>360</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>575</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>576</v>
+        <v>362</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>573</v>
+        <v>359</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>577</v>
+        <v>363</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>578</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>579</v>
+        <v>365</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>573</v>
+        <v>359</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>580</v>
+        <v>366</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>581</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>582</v>
+        <v>368</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>573</v>
+        <v>359</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>583</v>
+        <v>369</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>584</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>585</v>
+        <v>371</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>586</v>
+        <v>372</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>587</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>588</v>
+        <v>374</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>585</v>
+        <v>371</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>589</v>
+        <v>375</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>590</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>591</v>
+        <v>377</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>585</v>
+        <v>371</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>592</v>
+        <v>378</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>593</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>594</v>
+        <v>380</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>585</v>
+        <v>371</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>595</v>
+        <v>381</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>596</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>598</v>
+        <v>384</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>599</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>600</v>
+        <v>386</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>601</v>
+        <v>387</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>602</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>603</v>
+        <v>389</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>604</v>
+        <v>390</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>605</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>606</v>
+        <v>392</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>607</v>
+        <v>393</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>608</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>610</v>
+        <v>396</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>611</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>612</v>
+        <v>398</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>541</v>
+        <v>327</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>613</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>614</v>
+        <v>400</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>615</v>
+        <v>401</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>616</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>617</v>
+        <v>403</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>618</v>
+        <v>404</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>619</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>620</v>
+        <v>406</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>621</v>
+        <v>407</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>622</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6245,1145 +4693,957 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>623</v>
+        <v>409</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>624</v>
+        <v>410</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>625</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>540</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>546</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>561</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>552</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B48" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="B8" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="E11" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="E14" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="D17" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>649</v>
+      <c r="E19" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
